--- a/Sensor Testing.xlsx
+++ b/Sensor Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uogcloud-my.sharepoint.com/personal/ws8299m_gre_ac_uk/Documents/Year 3/ELEE 1144 - Digital and Embedded Electronics/Assignement - Dobot Arm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weshu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{19FCF659-074B-48A8-AC9F-2A1C802A7D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9BADEB3-385E-4992-A09D-E5357EB79447}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA921DE-06E8-4B7D-B132-C57029F54E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A963D73-5BFA-4017-BED1-EAC5BEB73593}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A963D73-5BFA-4017-BED1-EAC5BEB73593}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Red</t>
   </si>
@@ -51,21 +51,6 @@
   </si>
   <si>
     <t>20mm</t>
-  </si>
-  <si>
-    <t>Qualitative</t>
-  </si>
-  <si>
-    <t>Does the arm stack three red blocks?</t>
-  </si>
-  <si>
-    <t>Does the arm stack three green blocks?</t>
-  </si>
-  <si>
-    <t>Does the arm stack three blue blocks?</t>
-  </si>
-  <si>
-    <t>Is the arm able to retrieve any block specified?</t>
   </si>
   <si>
     <t>Red Value</t>
@@ -106,6 +91,39 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Actual Colour</t>
+  </si>
+  <si>
+    <t>Colour Identified by System</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Storage Space Count 1</t>
+  </si>
+  <si>
+    <t>Storage Space Count 3</t>
+  </si>
+  <si>
+    <t>Storage Space Count 2</t>
+  </si>
+  <si>
+    <t>Storage Space Count 0*</t>
+  </si>
+  <si>
+    <t>✓✓✓</t>
+  </si>
+  <si>
+    <t>At count 0, the dobot arm will not attempt to retrieve a block. This was successful for all colours.</t>
+  </si>
+  <si>
+    <t>Real System - Colour Identification</t>
+  </si>
+  <si>
+    <t>Real System - Retrieval Test</t>
   </si>
 </sst>
 </file>
@@ -115,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +206,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +246,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -332,6 +370,256 @@
       <right/>
       <top style="thin">
         <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -341,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,94 +637,232 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,527 +1194,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B4E429-90AD-4FB7-BE7E-C814CED7ED99}">
-  <dimension ref="B1:O36"/>
+  <dimension ref="B1:U41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42:T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="8" width="7.25" customWidth="1"/>
-    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="1" customWidth="1"/>
+    <col min="18" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+    </row>
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="28">
+        <v>154</v>
+      </c>
+      <c r="E4" s="28">
+        <v>144</v>
+      </c>
+      <c r="F4" s="28">
+        <v>144</v>
+      </c>
+      <c r="G4" s="28">
+        <v>134</v>
+      </c>
+      <c r="H4" s="29">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="47"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>164</v>
+      </c>
+      <c r="E5" s="3">
+        <v>154</v>
+      </c>
+      <c r="F5" s="3">
+        <v>144</v>
+      </c>
+      <c r="G5" s="3">
+        <v>144</v>
+      </c>
+      <c r="H5" s="31">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="48"/>
+      <c r="C6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="33">
+        <v>74</v>
+      </c>
+      <c r="E6" s="33">
+        <v>74</v>
+      </c>
+      <c r="F6" s="33">
+        <v>84</v>
+      </c>
+      <c r="G6" s="33">
+        <v>94</v>
+      </c>
+      <c r="H6" s="34">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="36">
+        <v>104</v>
+      </c>
+      <c r="E7" s="36">
+        <v>104</v>
+      </c>
+      <c r="F7" s="36">
+        <v>114</v>
+      </c>
+      <c r="G7" s="36">
+        <v>124</v>
+      </c>
+      <c r="H7" s="37">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="38"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>114</v>
+      </c>
+      <c r="E8" s="2">
+        <v>114</v>
+      </c>
+      <c r="F8" s="2">
+        <v>124</v>
+      </c>
+      <c r="G8" s="2">
+        <v>134</v>
+      </c>
+      <c r="H8" s="39">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="41">
+        <v>194</v>
+      </c>
+      <c r="E9" s="41">
+        <v>164</v>
+      </c>
+      <c r="F9" s="41">
+        <v>174</v>
+      </c>
+      <c r="G9" s="41">
+        <v>164</v>
+      </c>
+      <c r="H9" s="42">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="28">
+        <v>134</v>
+      </c>
+      <c r="E10" s="28">
+        <v>144</v>
+      </c>
+      <c r="F10" s="28">
+        <v>154</v>
+      </c>
+      <c r="G10" s="28">
+        <v>144</v>
+      </c>
+      <c r="H10" s="29">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3">
+        <v>74</v>
+      </c>
+      <c r="F11" s="3">
+        <v>94</v>
+      </c>
+      <c r="G11" s="3">
+        <v>104</v>
+      </c>
+      <c r="H11" s="31">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="33">
+        <v>174</v>
+      </c>
+      <c r="E12" s="33">
+        <v>144</v>
+      </c>
+      <c r="F12" s="33">
+        <v>154</v>
+      </c>
+      <c r="G12" s="33">
+        <v>154</v>
+      </c>
+      <c r="H12" s="34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>154</v>
-      </c>
-      <c r="E3" s="2">
-        <v>144</v>
-      </c>
-      <c r="F3" s="2">
-        <v>144</v>
-      </c>
-      <c r="G3" s="2">
-        <v>134</v>
-      </c>
-      <c r="H3" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1">
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7">
-        <v>164</v>
-      </c>
-      <c r="E4" s="7">
-        <v>154</v>
-      </c>
-      <c r="F4" s="7">
-        <v>144</v>
-      </c>
-      <c r="G4" s="7">
-        <v>144</v>
-      </c>
-      <c r="H4" s="7">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1">
-      <c r="B5" s="9"/>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>74</v>
-      </c>
-      <c r="E5" s="2">
-        <v>74</v>
-      </c>
-      <c r="F5" s="2">
-        <v>84</v>
-      </c>
-      <c r="G5" s="2">
-        <v>94</v>
-      </c>
-      <c r="H5" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="15" customHeight="1">
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7">
-        <v>104</v>
-      </c>
-      <c r="E6" s="7">
-        <v>104</v>
-      </c>
-      <c r="F6" s="7">
-        <v>114</v>
-      </c>
-      <c r="G6" s="7">
-        <v>124</v>
-      </c>
-      <c r="H6" s="7">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="15" customHeight="1">
-      <c r="B7" s="11"/>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>114</v>
-      </c>
-      <c r="E7" s="2">
-        <v>114</v>
-      </c>
-      <c r="F7" s="2">
-        <v>124</v>
-      </c>
-      <c r="G7" s="2">
-        <v>134</v>
-      </c>
-      <c r="H7" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="15" customHeight="1">
-      <c r="B8" s="12"/>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>194</v>
-      </c>
-      <c r="E8" s="7">
-        <v>164</v>
-      </c>
-      <c r="F8" s="7">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7">
-        <v>164</v>
-      </c>
-      <c r="H8" s="7">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15" customHeight="1">
-      <c r="B9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>134</v>
-      </c>
-      <c r="E9" s="2">
-        <v>144</v>
-      </c>
-      <c r="F9" s="2">
-        <v>154</v>
-      </c>
-      <c r="G9" s="2">
-        <v>144</v>
-      </c>
-      <c r="H9" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7">
-        <v>74</v>
-      </c>
-      <c r="E10" s="7">
-        <v>74</v>
-      </c>
-      <c r="F10" s="7">
-        <v>94</v>
-      </c>
-      <c r="G10" s="7">
-        <v>104</v>
-      </c>
-      <c r="H10" s="7">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="17">
-        <v>174</v>
-      </c>
-      <c r="E11" s="17">
-        <v>144</v>
-      </c>
-      <c r="F11" s="17">
-        <v>154</v>
-      </c>
-      <c r="G11" s="17">
-        <v>154</v>
-      </c>
-      <c r="H11" s="17">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:15" ht="15.75">
-      <c r="I15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="I16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="2:15" ht="15.75">
-      <c r="I17" s="21">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
-        <v>17110</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>22</v>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="2:15" ht="15.75">
-      <c r="I18" s="21">
-        <v>5</v>
-      </c>
-      <c r="J18" s="22">
-        <v>35</v>
-      </c>
-      <c r="K18" s="28">
-        <f>J18/I18</f>
-        <v>7</v>
+    <row r="18" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>17110</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="2:15" ht="15.75">
-      <c r="I19" s="21">
-        <v>10</v>
-      </c>
-      <c r="J19" s="22">
-        <v>28</v>
-      </c>
-      <c r="K19" s="28">
-        <f t="shared" ref="K19:K29" si="0">J19/I19</f>
-        <v>2.8</v>
+    <row r="19" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>35</v>
+      </c>
+      <c r="K19" s="8">
+        <f>J19/I19</f>
+        <v>7</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75">
-      <c r="I20" s="24">
+    <row r="20" spans="9:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="13">
+        <v>10</v>
+      </c>
+      <c r="J20" s="14">
+        <v>28</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" ref="K20:K30" si="0">J20/I20</f>
+        <v>2.8</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="19">
         <v>15</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J21" s="20">
         <v>15</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K21" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N20"/>
-      <c r="O20"/>
-    </row>
-    <row r="21" spans="2:15" ht="15.75">
-      <c r="I21" s="24">
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="9:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="22">
         <v>20</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J22" s="23">
         <v>19.2</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K22" s="24">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.75">
-      <c r="I22" s="21">
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I23" s="16">
         <v>25</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J23" s="17">
         <v>22</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K23" s="18">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="2:15" ht="15.75">
-      <c r="I23" s="21">
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I24" s="5">
         <v>30</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J24" s="7">
         <v>27.4</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K24" s="8">
         <f t="shared" si="0"/>
         <v>0.91333333333333333</v>
       </c>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="2:15" ht="15.75">
-      <c r="I24" s="21">
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I25" s="5">
         <v>35</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J25" s="7">
         <v>32</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K25" s="8">
         <f t="shared" si="0"/>
         <v>0.91428571428571426</v>
       </c>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="2:15" ht="15.75">
-      <c r="I25" s="21">
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I26" s="5">
         <v>40</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J26" s="7">
         <v>39.6</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K26" s="8">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75">
-      <c r="I26" s="21">
+      <c r="N26"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="5">
         <v>45</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J27" s="7">
         <v>44.8</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K27" s="8">
         <f t="shared" si="0"/>
         <v>0.99555555555555553</v>
       </c>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75">
-      <c r="I27" s="21">
+      <c r="N27"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I28" s="5">
         <v>50</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J28" s="7">
         <v>48.7</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K28" s="8">
         <f t="shared" si="0"/>
         <v>0.97400000000000009</v>
       </c>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="2:15" ht="15.75">
-      <c r="I28" s="21">
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I29" s="5">
         <v>55</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J29" s="7">
         <v>53.7</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K29" s="8">
         <f t="shared" si="0"/>
         <v>0.97636363636363643</v>
       </c>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="2:15" ht="15.75">
-      <c r="I29" s="21">
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I30" s="5">
         <v>60</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J30" s="7">
         <v>58.2</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K30" s="8">
         <f t="shared" si="0"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="2:15" ht="14.25" customHeight="1">
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" t="s">
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="9:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="L31" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
+    </row>
+    <row r="32" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="L32" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="62"/>
+    </row>
+    <row r="34" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="L34" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="55">
+        <v>12</v>
+      </c>
+      <c r="N34" s="55">
+        <v>0</v>
+      </c>
+      <c r="O34" s="55">
+        <v>0</v>
+      </c>
+      <c r="P34" s="66">
+        <f>M34/(SUM(M34:O34))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="L35" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="57">
+        <v>2</v>
+      </c>
+      <c r="N35" s="57">
         <v>9</v>
       </c>
+      <c r="O35" s="57">
+        <v>1</v>
+      </c>
+      <c r="P35" s="66">
+        <f>N35/(SUM(M35:O35))</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="L36" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="55">
+        <v>1</v>
+      </c>
+      <c r="N36" s="55">
+        <v>0</v>
+      </c>
+      <c r="O36" s="55">
+        <v>11</v>
+      </c>
+      <c r="P36" s="66">
+        <f>O36/(SUM(M36:O36))</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="9:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q37" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+    </row>
+    <row r="38" spans="9:21" s="67" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="Q39" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="Q40" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="71"/>
+    </row>
+    <row r="41" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="Q41" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B12:H14"/>
-    <mergeCell ref="I30:J33"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="14">
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="B13:H15"/>
+    <mergeCell ref="I31:J35"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
+  <conditionalFormatting sqref="P34:P36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.85"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Sensor Testing.xlsx
+++ b/Sensor Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weshu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA921DE-06E8-4B7D-B132-C57029F54E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B368CE-C2C8-4184-AA2F-5371DCFA0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A963D73-5BFA-4017-BED1-EAC5BEB73593}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Red</t>
   </si>
@@ -65,65 +65,68 @@
     <t>RGB Returned Values in Natural Light*</t>
   </si>
   <si>
+    <t>0mm</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>15mm</t>
+  </si>
+  <si>
+    <t>Actual Distance (mm)</t>
+  </si>
+  <si>
+    <t>Measured Distance (mm)</t>
+  </si>
+  <si>
+    <t>Ultrasonic Sensor Calibration</t>
+  </si>
+  <si>
+    <t>Difference (%)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Actual Colour</t>
+  </si>
+  <si>
+    <t>Colour Identified by System</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Storage Space Count 1</t>
+  </si>
+  <si>
+    <t>Storage Space Count 3</t>
+  </si>
+  <si>
+    <t>Storage Space Count 2</t>
+  </si>
+  <si>
+    <t>Storage Space Count 0*</t>
+  </si>
+  <si>
+    <t>✓✓✓</t>
+  </si>
+  <si>
+    <t>At count 0, the dobot arm will not attempt to retrieve a block. This was successful for all colours.</t>
+  </si>
+  <si>
+    <t>Real System - Colour Identification</t>
+  </si>
+  <si>
+    <t>Real System - Retrieval Test</t>
+  </si>
+  <si>
+    <t>Wooden</t>
+  </si>
+  <si>
     <t>Comment:
-The red, green and blue values remained consistent despite the environment's light levels.</t>
-  </si>
-  <si>
-    <t>0mm</t>
-  </si>
-  <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>15mm</t>
-  </si>
-  <si>
-    <t>Actual Distance (mm)</t>
-  </si>
-  <si>
-    <t>Measured Distance (mm)</t>
-  </si>
-  <si>
-    <t>Ultrasonic Sensor Calibration</t>
-  </si>
-  <si>
-    <t>Difference (%)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Actual Colour</t>
-  </si>
-  <si>
-    <t>Colour Identified by System</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Storage Space Count 1</t>
-  </si>
-  <si>
-    <t>Storage Space Count 3</t>
-  </si>
-  <si>
-    <t>Storage Space Count 2</t>
-  </si>
-  <si>
-    <t>Storage Space Count 0*</t>
-  </si>
-  <si>
-    <t>✓✓✓</t>
-  </si>
-  <si>
-    <t>At count 0, the dobot arm will not attempt to retrieve a block. This was successful for all colours.</t>
-  </si>
-  <si>
-    <t>Real System - Colour Identification</t>
-  </si>
-  <si>
-    <t>Real System - Retrieval Test</t>
+The red, green and blue values remained consistent in various light conditions.</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +223,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF82703E"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -253,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -491,6 +502,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -500,17 +586,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -519,109 +607,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -629,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,8 +652,155 @@
     <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -667,197 +811,53 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -866,6 +866,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF82703E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1194,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B4E429-90AD-4FB7-BE7E-C814CED7ED99}">
-  <dimension ref="B1:U41"/>
+  <dimension ref="B1:U44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42:T43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,62 +1221,62 @@
     <col min="21" max="21" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+    <row r="1" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-    </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="F3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="21">
         <v>154</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="21">
         <v>144</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="21">
         <v>144</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="21">
         <v>134</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="22">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="69"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1287,56 +1292,56 @@
       <c r="G5" s="3">
         <v>144</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="23">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="33" t="s">
+    <row r="6" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="70"/>
+      <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="24">
         <v>74</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="24">
         <v>74</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="24">
         <v>84</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="24">
         <v>94</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="25">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="26">
         <v>104</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="26">
         <v>104</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="26">
         <v>114</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="26">
         <v>124</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="27">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="72"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1352,56 +1357,56 @@
       <c r="G8" s="2">
         <v>134</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="28">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="40"/>
-      <c r="C9" s="41" t="s">
+    <row r="9" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="73"/>
+      <c r="C9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="29">
         <v>194</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="29">
         <v>164</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="29">
         <v>174</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="29">
         <v>164</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="30">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="21">
         <v>134</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="21">
         <v>144</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="21">
         <v>154</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="21">
         <v>144</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="22">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="75"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1417,451 +1422,517 @@
       <c r="G11" s="3">
         <v>104</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="23">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+    <row r="12" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="76"/>
+      <c r="C12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="24">
         <v>174</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="24">
         <v>144</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="24">
         <v>154</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="24">
         <v>154</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="25">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="N16"/>
-      <c r="O16"/>
-    </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="4" t="s">
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21">
+        <v>84</v>
+      </c>
+      <c r="E13" s="21">
+        <v>74</v>
+      </c>
+      <c r="F13" s="21">
+        <v>104</v>
+      </c>
+      <c r="G13" s="21">
+        <v>124</v>
+      </c>
+      <c r="H13" s="22">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="64"/>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2">
+        <v>84</v>
+      </c>
+      <c r="F14" s="2">
+        <v>114</v>
+      </c>
+      <c r="G14" s="2">
+        <v>134</v>
+      </c>
+      <c r="H14" s="28">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="65"/>
+      <c r="C15" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="24">
+        <v>64</v>
+      </c>
+      <c r="E15" s="24">
+        <v>54</v>
+      </c>
+      <c r="F15" s="24">
+        <v>84</v>
+      </c>
+      <c r="G15" s="24">
+        <v>94</v>
+      </c>
+      <c r="H15" s="25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>17110</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I19" s="5">
-        <v>5</v>
-      </c>
-      <c r="J19" s="6">
-        <v>35</v>
-      </c>
-      <c r="K19" s="8">
-        <f>J19/I19</f>
-        <v>7</v>
-      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="9:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="13">
-        <v>10</v>
-      </c>
-      <c r="J20" s="14">
-        <v>28</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" ref="K20:K30" si="0">J20/I20</f>
-        <v>2.8</v>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I21" s="19">
+    <row r="21" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>17110</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>35</v>
+      </c>
+      <c r="K22" s="8">
+        <f>J22/I22</f>
+        <v>7</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="J23" s="10">
+        <v>28</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" ref="K23:K33" si="0">J23/I23</f>
+        <v>2.8</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I24" s="15">
         <v>15</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J24" s="16">
         <v>15</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K24" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="9:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="22">
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="18">
         <v>20</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J25" s="19">
         <v>19.2</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K25" s="20">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I23" s="16">
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I26" s="12">
         <v>25</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J26" s="13">
         <v>22</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K26" s="14">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I24" s="5">
+      <c r="N26"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="5">
         <v>30</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J27" s="7">
         <v>27.4</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K27" s="8">
         <f t="shared" si="0"/>
         <v>0.91333333333333333</v>
       </c>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I25" s="5">
+      <c r="N27"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I28" s="5">
         <v>35</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J28" s="7">
         <v>32</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K28" s="8">
         <f t="shared" si="0"/>
         <v>0.91428571428571426</v>
       </c>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I26" s="5">
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I29" s="5">
         <v>40</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J29" s="7">
         <v>39.6</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K29" s="8">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I27" s="5">
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I30" s="5">
         <v>45</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J30" s="7">
         <v>44.8</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K30" s="8">
         <f t="shared" si="0"/>
         <v>0.99555555555555553</v>
       </c>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I28" s="5">
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I31" s="5">
         <v>50</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J31" s="7">
         <v>48.7</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K31" s="8">
         <f t="shared" si="0"/>
         <v>0.97400000000000009</v>
       </c>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I29" s="5">
+      <c r="N31"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I32" s="5">
         <v>55</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J32" s="7">
         <v>53.7</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K32" s="8">
         <f t="shared" si="0"/>
         <v>0.97636363636363643</v>
       </c>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="9:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I30" s="5">
+      <c r="N32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="9:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I33" s="5">
         <v>60</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J33" s="7">
         <v>58.2</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K33" s="8">
         <f t="shared" si="0"/>
         <v>0.97000000000000008</v>
       </c>
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="9:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="L31" s="49" t="s">
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="9:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="L34" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="55"/>
+    </row>
+    <row r="35" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="L35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" s="57"/>
+    </row>
+    <row r="37" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="L37" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="35">
+        <v>12</v>
+      </c>
+      <c r="N37" s="35">
+        <v>0</v>
+      </c>
+      <c r="O37" s="35">
+        <v>0</v>
+      </c>
+      <c r="P37" s="40">
+        <f>M37/(SUM(M37:O37))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="L38" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="37">
+        <v>2</v>
+      </c>
+      <c r="N38" s="37">
+        <v>9</v>
+      </c>
+      <c r="O38" s="37">
+        <v>1</v>
+      </c>
+      <c r="P38" s="40">
+        <f>N38/(SUM(M38:O38))</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="L39" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="35">
+        <v>1</v>
+      </c>
+      <c r="N39" s="35">
+        <v>0</v>
+      </c>
+      <c r="O39" s="35">
+        <v>11</v>
+      </c>
+      <c r="P39" s="40">
+        <f>O39/(SUM(M39:O39))</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="9:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q40" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="51"/>
-    </row>
-    <row r="32" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="L32" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" s="60"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="58" t="s">
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+    </row>
+    <row r="41" spans="9:21" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" s="43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="63" t="s">
+      <c r="U41" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="Q42" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="56" t="s">
+      <c r="R42" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="Q43" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="O33" s="64" t="s">
+      <c r="R43" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" s="48"/>
+    </row>
+    <row r="44" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="Q44" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="62"/>
-    </row>
-    <row r="34" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="L34" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="55">
-        <v>12</v>
-      </c>
-      <c r="N34" s="55">
-        <v>0</v>
-      </c>
-      <c r="O34" s="55">
-        <v>0</v>
-      </c>
-      <c r="P34" s="66">
-        <f>M34/(SUM(M34:O34))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="L35" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="M35" s="57">
-        <v>2</v>
-      </c>
-      <c r="N35" s="57">
-        <v>9</v>
-      </c>
-      <c r="O35" s="57">
-        <v>1</v>
-      </c>
-      <c r="P35" s="66">
-        <f>N35/(SUM(M35:O35))</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="36" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="L36" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="55">
-        <v>1</v>
-      </c>
-      <c r="N36" s="55">
-        <v>0</v>
-      </c>
-      <c r="O36" s="55">
-        <v>11</v>
-      </c>
-      <c r="P36" s="66">
-        <f>O36/(SUM(M36:O36))</f>
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="37" spans="9:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="Q37" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-    </row>
-    <row r="38" spans="9:21" s="67" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S38" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="U38" s="73" t="s">
+      <c r="R44" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="Q39" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="S39" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="T39" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="U39" s="70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="Q40" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R40" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="S40" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="T40" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="U40" s="71"/>
-    </row>
-    <row r="41" spans="9:21" x14ac:dyDescent="0.3">
-      <c r="Q41" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="R41" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="S41" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="T41" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="U41" s="72"/>
+      <c r="S44" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="T44" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="B13:H15"/>
-    <mergeCell ref="I31:J35"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B2:H2"/>
+  <mergeCells count="15">
+    <mergeCell ref="I34:J38"/>
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B16:H18"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q40:U40"/>
   </mergeCells>
-  <conditionalFormatting sqref="P34:P36">
+  <conditionalFormatting sqref="P37:P39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.5"/>
